--- a/QKD_Simulation.xlsx
+++ b/QKD_Simulation.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1831332717759311</v>
+        <v>0.2070568927789934</v>
       </c>
       <c r="C2">
-        <v>0.3554939981532779</v>
+        <v>0.3202954048140044</v>
       </c>
       <c r="D2">
-        <v>0.1819021237303786</v>
+        <v>0.1797045951859956</v>
       </c>
       <c r="E2">
-        <v>0.2794706063404124</v>
+        <v>0.2929431072210066</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1384297520661157</v>
+        <v>0.3460679732076408</v>
       </c>
       <c r="C3">
-        <v>0.4082644628099174</v>
+        <v>0.2322004465393203</v>
       </c>
       <c r="D3">
-        <v>0.05619834710743802</v>
+        <v>0.2061523195236914</v>
       </c>
       <c r="E3">
-        <v>0.3971074380165289</v>
+        <v>0.2155792607293475</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1293428212641272</v>
+        <v>0.5799815781393921</v>
       </c>
       <c r="C4">
-        <v>0.5629970699037254</v>
+        <v>0.1596561252686521</v>
       </c>
       <c r="D4">
-        <v>0.06529928840519046</v>
+        <v>0.1891311022413264</v>
       </c>
       <c r="E4">
-        <v>0.2423608204269569</v>
+        <v>0.07123119435062941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.06494881750794211</v>
+        <v>0.1756837098692033</v>
       </c>
       <c r="C5">
-        <v>0.4835863042710907</v>
+        <v>0.183115338882283</v>
       </c>
       <c r="D5">
-        <v>0.05259442287327921</v>
+        <v>0.3727705112960761</v>
       </c>
       <c r="E5">
-        <v>0.3988704553476879</v>
+        <v>0.2684304399524376</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0972342264477096</v>
+        <v>0.1878342245989305</v>
       </c>
       <c r="C6">
-        <v>0.4658599827139153</v>
+        <v>0.1747994652406417</v>
       </c>
       <c r="D6">
-        <v>0.05963699222126188</v>
+        <v>0.3689839572192513</v>
       </c>
       <c r="E6">
-        <v>0.3772687986171132</v>
+        <v>0.2683823529411765</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09683313032886723</v>
+        <v>0.176231884057971</v>
       </c>
       <c r="C7">
-        <v>0.3035931790499391</v>
+        <v>0.1820289855072464</v>
       </c>
       <c r="D7">
-        <v>0.1419001218026797</v>
+        <v>0.3715942028985507</v>
       </c>
       <c r="E7">
-        <v>0.457673568818514</v>
+        <v>0.2701449275362319</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.234514998052201</v>
+        <v>0.5838792366847052</v>
       </c>
       <c r="C8">
-        <v>0.5192832099727308</v>
+        <v>0.1592138991740245</v>
       </c>
       <c r="D8">
-        <v>0.07167900272691859</v>
+        <v>0.1831387069211051</v>
       </c>
       <c r="E8">
-        <v>0.1745227892481496</v>
+        <v>0.07376815722016519</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07968865826538177</v>
+        <v>0.5805219605346913</v>
       </c>
       <c r="C9">
-        <v>0.3083765752409192</v>
+        <v>0.1543602800763845</v>
       </c>
       <c r="D9">
-        <v>0.1100815418828762</v>
+        <v>0.1909611712285169</v>
       </c>
       <c r="E9">
-        <v>0.5018532246108228</v>
+        <v>0.07415658816040738</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1531780497433873</v>
+        <v>0.1779607346421786</v>
       </c>
       <c r="C10">
-        <v>0.3987366758784051</v>
+        <v>0.1716276124129196</v>
       </c>
       <c r="D10">
-        <v>0.1512041058033952</v>
+        <v>0.3856871437618746</v>
       </c>
       <c r="E10">
-        <v>0.2968811685748124</v>
+        <v>0.2647245091830273</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1050273768043803</v>
+        <v>0.3826761473820297</v>
       </c>
       <c r="C11">
-        <v>0.593827775012444</v>
+        <v>0.1748545572074984</v>
       </c>
       <c r="D11">
-        <v>0.05574912891986063</v>
+        <v>0.1987718164188752</v>
       </c>
       <c r="E11">
-        <v>0.2453957192633151</v>
+        <v>0.2436974789915966</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.07698961937716263</v>
+        <v>0.3903946742748455</v>
       </c>
       <c r="C12">
-        <v>0.3248269896193772</v>
+        <v>0.1783166904422254</v>
       </c>
       <c r="D12">
-        <v>0.1094290657439446</v>
+        <v>0.2082738944365193</v>
       </c>
       <c r="E12">
-        <v>0.4887543252595156</v>
+        <v>0.2230147408464099</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1415285078851597</v>
+        <v>0.3591095489162273</v>
       </c>
       <c r="C13">
-        <v>0.4173069146785281</v>
+        <v>0.2243702401874634</v>
       </c>
       <c r="D13">
-        <v>0.05418520016174687</v>
+        <v>0.2076742823667252</v>
       </c>
       <c r="E13">
-        <v>0.3869793772745653</v>
+        <v>0.2088459285295841</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1050600343053173</v>
+        <v>0.3998997744926084</v>
       </c>
       <c r="C14">
-        <v>0.4558319039451115</v>
+        <v>0.1373089451265347</v>
       </c>
       <c r="D14">
-        <v>0.06903945111492281</v>
+        <v>0.3868704585316963</v>
       </c>
       <c r="E14">
-        <v>0.3700686106346484</v>
+        <v>0.07592082184916062</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.0939786156443444</v>
+        <v>0.186161449752883</v>
       </c>
       <c r="C15">
-        <v>0.4614518851997749</v>
+        <v>0.1889071938495332</v>
       </c>
       <c r="D15">
-        <v>0.04445694991558807</v>
+        <v>0.3643602416254805</v>
       </c>
       <c r="E15">
-        <v>0.4001125492402926</v>
+        <v>0.2605711147721033</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.07182576459684893</v>
+        <v>0.184251968503937</v>
       </c>
       <c r="C16">
-        <v>0.3493975903614458</v>
+        <v>0.1707086614173228</v>
       </c>
       <c r="D16">
-        <v>0.09267840593141798</v>
+        <v>0.3729133858267716</v>
       </c>
       <c r="E16">
-        <v>0.4860982391102873</v>
+        <v>0.2721259842519685</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,832 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.250984604368063</v>
+        <v>0.4189446916719644</v>
       </c>
       <c r="C17">
-        <v>0.4976727533118511</v>
+        <v>0.32453909726637</v>
       </c>
       <c r="D17">
-        <v>0.08091657715717866</v>
+        <v>0.1636999364272091</v>
       </c>
       <c r="E17">
-        <v>0.1704260651629073</v>
+        <v>0.09281627463445645</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.3906670655100209</v>
+      </c>
+      <c r="C18">
+        <v>0.1355070296141191</v>
+      </c>
+      <c r="D18">
+        <v>0.3987436434340413</v>
+      </c>
+      <c r="E18">
+        <v>0.07508226144181873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.3896229455365775</v>
+      </c>
+      <c r="C19">
+        <v>0.190783113116339</v>
+      </c>
+      <c r="D19">
+        <v>0.190783113116339</v>
+      </c>
+      <c r="E19">
+        <v>0.2288108282307444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.1796812749003984</v>
+      </c>
+      <c r="C20">
+        <v>0.1896414342629482</v>
+      </c>
+      <c r="D20">
+        <v>0.3741035856573705</v>
+      </c>
+      <c r="E20">
+        <v>0.2565737051792829</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.342790516906335</v>
+      </c>
+      <c r="C21">
+        <v>0.2444617178390983</v>
+      </c>
+      <c r="D21">
+        <v>0.2102603964244073</v>
+      </c>
+      <c r="E21">
+        <v>0.2024873688301594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.4098248024733768</v>
+      </c>
+      <c r="C22">
+        <v>0.3232566128478186</v>
+      </c>
+      <c r="D22">
+        <v>0.1714187564410855</v>
+      </c>
+      <c r="E22">
+        <v>0.09549982823771899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.1900884955752212</v>
+      </c>
+      <c r="C23">
+        <v>0.1798230088495575</v>
+      </c>
+      <c r="D23">
+        <v>0.3907964601769912</v>
+      </c>
+      <c r="E23">
+        <v>0.2392920353982301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.3987884906612822</v>
+      </c>
+      <c r="C24">
+        <v>0.1716304896516911</v>
+      </c>
+      <c r="D24">
+        <v>0.2014134275618374</v>
+      </c>
+      <c r="E24">
+        <v>0.2281675921251893</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.375599128540305</v>
+      </c>
+      <c r="C25">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="D25">
+        <v>0.207843137254902</v>
+      </c>
+      <c r="E25">
+        <v>0.2400871459694989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.4237097980553478</v>
+      </c>
+      <c r="C26">
+        <v>0.3130142109199701</v>
+      </c>
+      <c r="D26">
+        <v>0.1697830964846672</v>
+      </c>
+      <c r="E26">
+        <v>0.09349289454001496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.1832083092902481</v>
+      </c>
+      <c r="C27">
+        <v>0.2507212925562608</v>
+      </c>
+      <c r="D27">
+        <v>0.2230236583958453</v>
+      </c>
+      <c r="E27">
+        <v>0.3430467397576457</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.2048809882494727</v>
+      </c>
+      <c r="C28">
+        <v>0.3377523350406749</v>
+      </c>
+      <c r="D28">
+        <v>0.1798734558601988</v>
+      </c>
+      <c r="E28">
+        <v>0.2774932208496535</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.5822314049586776</v>
+      </c>
+      <c r="C29">
+        <v>0.162396694214876</v>
+      </c>
+      <c r="D29">
+        <v>0.1917355371900827</v>
+      </c>
+      <c r="E29">
+        <v>0.06363636363636363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.1851278079008521</v>
+      </c>
+      <c r="C30">
+        <v>0.1723470178156468</v>
+      </c>
+      <c r="D30">
+        <v>0.3826491092176607</v>
+      </c>
+      <c r="E30">
+        <v>0.2598760650658404</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.2139261744966443</v>
+      </c>
+      <c r="C31">
+        <v>0.338506711409396</v>
+      </c>
+      <c r="D31">
+        <v>0.186241610738255</v>
+      </c>
+      <c r="E31">
+        <v>0.2613255033557047</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.2107255520504732</v>
+      </c>
+      <c r="C32">
+        <v>0.3126182965299685</v>
+      </c>
+      <c r="D32">
+        <v>0.1902208201892744</v>
+      </c>
+      <c r="E32">
+        <v>0.2864353312302839</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.2103200522534291</v>
+      </c>
+      <c r="C33">
+        <v>0.3285434356629654</v>
+      </c>
+      <c r="D33">
+        <v>0.1874591770084912</v>
+      </c>
+      <c r="E33">
+        <v>0.2736773350751143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.3834532374100719</v>
+      </c>
+      <c r="C34">
+        <v>0.1723021582733813</v>
+      </c>
+      <c r="D34">
+        <v>0.2133093525179856</v>
+      </c>
+      <c r="E34">
+        <v>0.2309352517985611</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.2213520197856554</v>
+      </c>
+      <c r="C35">
+        <v>0.3219291014014839</v>
+      </c>
+      <c r="D35">
+        <v>0.1830173124484749</v>
+      </c>
+      <c r="E35">
+        <v>0.2737015663643858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.1691507798960139</v>
+      </c>
+      <c r="C36">
+        <v>0.2589254766031196</v>
+      </c>
+      <c r="D36">
+        <v>0.2322357019064125</v>
+      </c>
+      <c r="E36">
+        <v>0.3396880415944541</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.3946740858505565</v>
+      </c>
+      <c r="C37">
+        <v>0.1478537360890302</v>
+      </c>
+      <c r="D37">
+        <v>0.3624801271860095</v>
+      </c>
+      <c r="E37">
+        <v>0.09499205087440382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.3817262549656916</v>
+      </c>
+      <c r="C38">
+        <v>0.196460816179126</v>
+      </c>
+      <c r="D38">
+        <v>0.1849042975803539</v>
+      </c>
+      <c r="E38">
+        <v>0.2369086312748284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.3844936708860759</v>
+      </c>
+      <c r="C39">
+        <v>0.1556962025316456</v>
+      </c>
+      <c r="D39">
+        <v>0.385126582278481</v>
+      </c>
+      <c r="E39">
+        <v>0.07468354430379746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.5894876912840985</v>
+      </c>
+      <c r="C40">
+        <v>0.1600133067198936</v>
+      </c>
+      <c r="D40">
+        <v>0.177977378576181</v>
+      </c>
+      <c r="E40">
+        <v>0.07252162341982701</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.3472775564409031</v>
+      </c>
+      <c r="C41">
+        <v>0.2171314741035857</v>
+      </c>
+      <c r="D41">
+        <v>0.2207835325365206</v>
+      </c>
+      <c r="E41">
+        <v>0.2148074369189907</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.1673590504451039</v>
+      </c>
+      <c r="C42">
+        <v>0.2635014836795253</v>
+      </c>
+      <c r="D42">
+        <v>0.2275964391691395</v>
+      </c>
+      <c r="E42">
+        <v>0.3415430267062314</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.2126288659793814</v>
+      </c>
+      <c r="C43">
+        <v>0.3240979381443299</v>
+      </c>
+      <c r="D43">
+        <v>0.1984536082474227</v>
+      </c>
+      <c r="E43">
+        <v>0.264819587628866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.3882709807886754</v>
+      </c>
+      <c r="C44">
+        <v>0.1907650825749916</v>
+      </c>
+      <c r="D44">
+        <v>0.1907650825749916</v>
+      </c>
+      <c r="E44">
+        <v>0.2301988540613414</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.5955318439479826</v>
+      </c>
+      <c r="C45">
+        <v>0.1537179059686562</v>
+      </c>
+      <c r="D45">
+        <v>0.1823941313771257</v>
+      </c>
+      <c r="E45">
+        <v>0.06835611870623541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.3965295629820051</v>
+      </c>
+      <c r="C46">
+        <v>0.3181233933161954</v>
+      </c>
+      <c r="D46">
+        <v>0.1838046272493573</v>
+      </c>
+      <c r="E46">
+        <v>0.1015424164524422</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.1969981238273921</v>
+      </c>
+      <c r="C47">
+        <v>0.3414634146341464</v>
+      </c>
+      <c r="D47">
+        <v>0.1929330831769856</v>
+      </c>
+      <c r="E47">
+        <v>0.2686053783614759</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.4182565306721456</v>
+      </c>
+      <c r="C48">
+        <v>0.3178749633108306</v>
+      </c>
+      <c r="D48">
+        <v>0.1684766656882888</v>
+      </c>
+      <c r="E48">
+        <v>0.09539184032873496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.4192382541006394</v>
+      </c>
+      <c r="C49">
+        <v>0.316930775646372</v>
+      </c>
+      <c r="D49">
+        <v>0.1634695579649708</v>
+      </c>
+      <c r="E49">
+        <v>0.1003614122880178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.401727115716753</v>
+      </c>
+      <c r="C50">
+        <v>0.3326424870466321</v>
+      </c>
+      <c r="D50">
+        <v>0.1664939550949914</v>
+      </c>
+      <c r="E50">
+        <v>0.09913644214162348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.4042067916877851</v>
+      </c>
+      <c r="C51">
+        <v>0.3261530663963507</v>
+      </c>
+      <c r="D51">
+        <v>0.1581348200709579</v>
+      </c>
+      <c r="E51">
+        <v>0.1115053218449062</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.2072633895818048</v>
+      </c>
+      <c r="C52">
+        <v>0.3033749082905356</v>
+      </c>
+      <c r="D52">
+        <v>0.185986793837124</v>
+      </c>
+      <c r="E52">
+        <v>0.3033749082905356</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.1726643598615917</v>
+      </c>
+      <c r="C53">
+        <v>0.170242214532872</v>
+      </c>
+      <c r="D53">
+        <v>0.3698961937716263</v>
+      </c>
+      <c r="E53">
+        <v>0.28719723183391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.415428390768258</v>
+      </c>
+      <c r="C54">
+        <v>0.325640214985773</v>
+      </c>
+      <c r="D54">
+        <v>0.1599747075561176</v>
+      </c>
+      <c r="E54">
+        <v>0.0989566866898514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.3745068285280728</v>
+      </c>
+      <c r="C55">
+        <v>0.1872534142640364</v>
+      </c>
+      <c r="D55">
+        <v>0.2063732928679818</v>
+      </c>
+      <c r="E55">
+        <v>0.231866464339909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.4156586021505376</v>
+      </c>
+      <c r="C56">
+        <v>0.3161962365591398</v>
+      </c>
+      <c r="D56">
+        <v>0.1656586021505376</v>
+      </c>
+      <c r="E56">
+        <v>0.102486559139785</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.5787965616045845</v>
+      </c>
+      <c r="C57">
+        <v>0.1649611133851822</v>
+      </c>
+      <c r="D57">
+        <v>0.1776504297994269</v>
+      </c>
+      <c r="E57">
+        <v>0.07859189521080638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.3855160450997398</v>
+      </c>
+      <c r="C58">
+        <v>0.189071986123157</v>
+      </c>
+      <c r="D58">
+        <v>0.2003469210754553</v>
+      </c>
+      <c r="E58">
+        <v>0.2250650477016479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.5726664040961008</v>
+      </c>
+      <c r="C59">
+        <v>0.1654194564789287</v>
+      </c>
+      <c r="D59">
+        <v>0.171327294210319</v>
+      </c>
+      <c r="E59">
+        <v>0.09058684521465143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.3734723220704529</v>
+      </c>
+      <c r="C60">
+        <v>0.1502516175413372</v>
+      </c>
+      <c r="D60">
+        <v>0.3968368080517613</v>
+      </c>
+      <c r="E60">
+        <v>0.07943925233644859</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.1734967445423209</v>
+      </c>
+      <c r="C61">
+        <v>0.1838376101110686</v>
+      </c>
+      <c r="D61">
+        <v>0.3741861355802374</v>
+      </c>
+      <c r="E61">
+        <v>0.268479509766373</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.3550609432962374</v>
+      </c>
+      <c r="C62">
+        <v>0.2437731849496555</v>
+      </c>
+      <c r="D62">
+        <v>0.1976682564917859</v>
+      </c>
+      <c r="E62">
+        <v>0.2034976152623212</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.3418447107868682</v>
+      </c>
+      <c r="C63">
+        <v>0.2350182386659719</v>
+      </c>
+      <c r="D63">
+        <v>0.1896821261073476</v>
+      </c>
+      <c r="E63">
+        <v>0.2334549244398124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.3308504034761018</v>
+      </c>
+      <c r="C64">
+        <v>0.2371198013656114</v>
+      </c>
+      <c r="D64">
+        <v>0.2079453755431409</v>
+      </c>
+      <c r="E64">
+        <v>0.2240844196151459</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.1676891615541922</v>
+      </c>
+      <c r="C65">
+        <v>0.2426721199727335</v>
+      </c>
+      <c r="D65">
+        <v>0.2385821404226312</v>
+      </c>
+      <c r="E65">
+        <v>0.3510565780504431</v>
       </c>
     </row>
   </sheetData>
